--- a/size_factors.xlsx
+++ b/size_factors.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30E28B3-4878-4BDF-9F53-F3AA84F213D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A51DE6-CFCC-41F4-AE31-A7DB47793B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pure Size" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>CGRQPEUS Index</t>
   </si>
@@ -59,6 +72,9 @@
   </si>
   <si>
     <t>PX_LAST</t>
+  </si>
+  <si>
+    <t>MS Factor - US Size</t>
   </si>
 </sst>
 </file>
@@ -432,23 +448,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -486,8 +504,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -526,7 +547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43131</v>
       </c>
@@ -566,8 +587,11 @@
       <c r="M4">
         <v>3683.9848000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>3.7482319660537389E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43159</v>
       </c>
@@ -607,8 +631,12 @@
       <c r="M5">
         <v>3556.2645000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>(N4+N6)/2</f>
+        <v>-4.0945593244688418E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43189</v>
       </c>
@@ -648,8 +676,11 @@
       <c r="M6">
         <v>3505.1257999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>-4.5671438309475072E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43220</v>
       </c>
@@ -689,8 +720,11 @@
       <c r="M7">
         <v>3507.4063999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>-7.2448979591835938E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43251</v>
       </c>
@@ -730,8 +764,11 @@
       <c r="M8">
         <v>3569.5877999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>-4.5122828656593672E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43280</v>
       </c>
@@ -771,8 +808,11 @@
       <c r="M9">
         <v>3599.1939000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>-1.3993541442411941E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43312</v>
       </c>
@@ -812,8 +852,11 @@
       <c r="M10">
         <v>3690.9537999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>1.8217096043979811E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43343</v>
       </c>
@@ -853,8 +896,11 @@
       <c r="M11">
         <v>3801.7163999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>-1.153927588397197E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43371</v>
       </c>
@@ -894,8 +940,11 @@
       <c r="M12">
         <v>3801.6172999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>3.0095319695833789E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43404</v>
       </c>
@@ -935,8 +984,11 @@
       <c r="M13">
         <v>3491.1574000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>4.3356207111665553E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43434</v>
       </c>
@@ -976,8 +1028,11 @@
       <c r="M14">
         <v>3552.1358</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>2.6905829596413082E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43465</v>
       </c>
@@ -1017,8 +1072,11 @@
       <c r="M15">
         <v>3209.6266999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>3.1604054859868842E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43496</v>
       </c>
@@ -1058,8 +1116,11 @@
       <c r="M16">
         <v>3520.6668</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>-3.0250481695568428E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43524</v>
       </c>
@@ -1099,8 +1160,11 @@
       <c r="M17">
         <v>3664.9083000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>-2.026624279753619E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43553</v>
       </c>
@@ -1140,8 +1204,11 @@
       <c r="M18">
         <v>3701.9801000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>4.0356925572905933E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43585</v>
       </c>
@@ -1181,8 +1248,11 @@
       <c r="M19">
         <v>3853.3173999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>5.0682261208578883E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43616</v>
       </c>
@@ -1222,8 +1292,11 @@
       <c r="M20">
         <v>3590.8566000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>1.3285492629945489E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43644</v>
       </c>
@@ -1263,8 +1336,11 @@
       <c r="M21">
         <v>3843.3231999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>-9.5702938080188815E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43677</v>
       </c>
@@ -1304,8 +1380,11 @@
       <c r="M22">
         <v>3891.4409999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>7.3761854583771491E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43707</v>
       </c>
@@ -1345,8 +1424,11 @@
       <c r="M23">
         <v>3778.2345999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>3.3472803347280422E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43738</v>
       </c>
@@ -1386,8 +1468,11 @@
       <c r="M24">
         <v>3850.6939000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>-3.1284504968716038E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43769</v>
       </c>
@@ -1427,8 +1512,11 @@
       <c r="M25">
         <v>3908.5761000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>-5.5381207310319924E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43798</v>
       </c>
@@ -1468,8 +1556,11 @@
       <c r="M26">
         <v>4065.4639000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>-5.9402264711342356E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43830</v>
       </c>
@@ -1509,8 +1600,11 @@
       <c r="M27">
         <v>4166.4449999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>1.4005602240896311E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43861</v>
       </c>
@@ -1550,8 +1644,11 @@
       <c r="M28">
         <v>4153.7340999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>3.170163170163165E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43889</v>
       </c>
@@ -1591,8 +1688,11 @@
       <c r="M29">
         <v>3803.0142999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>9.9412562132861204E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43921</v>
       </c>
@@ -1632,8 +1732,11 @@
       <c r="M30">
         <v>3236.0879</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>0.102022390754785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43951</v>
       </c>
@@ -1673,8 +1776,11 @@
       <c r="M31">
         <v>3680.7447999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>-1.867933803047683E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43980</v>
       </c>
@@ -1714,8 +1820,11 @@
       <c r="M32">
         <v>3931.7276999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>-2.3376189681081901E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44012</v>
       </c>
@@ -1755,8 +1864,11 @@
       <c r="M33">
         <v>4000.7725</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>-1.9832449991451621E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44043</v>
       </c>
@@ -1796,8 +1908,11 @@
       <c r="M34">
         <v>4238.8195999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>2.476888191173909E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44074</v>
       </c>
@@ -1837,8 +1952,11 @@
       <c r="M35">
         <v>4451.1427000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>1.30212765957447E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44104</v>
       </c>
@@ -1878,8 +1996,11 @@
       <c r="M36">
         <v>4345.1799000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>-5.7968579349743088E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44134</v>
       </c>
@@ -1919,8 +2040,11 @@
       <c r="M37">
         <v>4273.3302000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>-4.7912793645428442E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44165</v>
       </c>
@@ -1960,8 +2084,11 @@
       <c r="M38">
         <v>4801.8759</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>-6.6743587467826382E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44196</v>
       </c>
@@ -2001,8 +2128,11 @@
       <c r="M39">
         <v>5000</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>-4.602948169281984E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44225</v>
       </c>
@@ -2042,8 +2172,11 @@
       <c r="M40">
         <v>4947.3846000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>-6.0811484398365152E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44253</v>
       </c>
@@ -2083,8 +2216,11 @@
       <c r="M41">
         <v>5130.4195</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>-3.6089587092665187E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44286</v>
       </c>
@@ -2124,8 +2260,11 @@
       <c r="M42">
         <v>5279.7941000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>2.7640127739235739E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44316</v>
       </c>
@@ -2165,8 +2304,11 @@
       <c r="M43">
         <v>5522.8010000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>2.9575653664809302E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44347</v>
       </c>
@@ -2206,8 +2348,11 @@
       <c r="M44">
         <v>5561.9054999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>2.601998334720967E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44377</v>
       </c>
@@ -2247,8 +2392,11 @@
       <c r="M45">
         <v>5675.6938</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>1.9723865877712128E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44407</v>
       </c>
@@ -2288,8 +2436,11 @@
       <c r="M46">
         <v>5789.0807000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>5.8640696228760891E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44439</v>
       </c>
@@ -2329,8 +2480,11 @@
       <c r="M47">
         <v>5942.5011000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>5.6762575846545094E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44469</v>
       </c>
@@ -2370,8 +2524,11 @@
       <c r="M48">
         <v>5662.3067000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>-1.839237057220711E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44498</v>
       </c>
@@ -2411,8 +2568,11 @@
       <c r="M49">
         <v>6020.4867999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>2.5081788440567191E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44530</v>
       </c>
@@ -2452,8 +2612,11 @@
       <c r="M50">
         <v>5899.7611999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>3.4042553191489411E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44561</v>
       </c>
@@ -2493,8 +2656,11 @@
       <c r="M51">
         <v>6146.2766000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>1.9547325102880601E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44592</v>
       </c>
@@ -2534,8 +2700,11 @@
       <c r="M52">
         <v>5718.9429</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>4.586735161911748E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44620</v>
       </c>
@@ -2575,8 +2744,11 @@
       <c r="M53">
         <v>5598.7875000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>-4.1750723620735057E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44651</v>
       </c>
@@ -2616,8 +2788,11 @@
       <c r="M54">
         <v>5743.9835000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>2.334096109839812E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44680</v>
       </c>
@@ -2657,8 +2832,11 @@
       <c r="M55">
         <v>5258.9346999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>1.198568872987482E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44712</v>
       </c>
@@ -2698,8 +2876,11 @@
       <c r="M56">
         <v>5242.6448</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>-1.944493547816895E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44742</v>
       </c>
@@ -2739,8 +2920,11 @@
       <c r="M57">
         <v>4814.9138000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>-1.505490612823235E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44771</v>
       </c>
@@ -2780,8 +2964,11 @@
       <c r="M58">
         <v>5244.3015999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>-1.2594235033259399E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44804</v>
       </c>
@@ -2821,8 +3008,11 @@
       <c r="M59">
         <v>5071.6120000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>-2.2186293002784518E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44834</v>
       </c>
@@ -2862,8 +3052,11 @@
       <c r="M60">
         <v>4604.1244999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>3.0314164982545582E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44865</v>
       </c>
@@ -2903,8 +3096,11 @@
       <c r="M61">
         <v>4993.7592000000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>-2.765821045883321E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44895</v>
       </c>
@@ -2944,8 +3140,11 @@
       <c r="M62">
         <v>5285.9413000000004</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>3.032871809362336E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44925</v>
       </c>
@@ -2985,8 +3184,11 @@
       <c r="M63">
         <v>4994.7563</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>7.3132827497943698E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44957</v>
       </c>
@@ -3026,8 +3228,11 @@
       <c r="M64">
         <v>5318.1273000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>-3.2670841274162747E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44985</v>
       </c>
@@ -3067,8 +3272,11 @@
       <c r="M65">
         <v>5188.9220999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>-8.9126559714794995E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45016</v>
       </c>
@@ -3108,8 +3316,11 @@
       <c r="M66">
         <v>5255.0156999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>8.6330935251798691E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45044</v>
       </c>
@@ -3149,8 +3360,11 @@
       <c r="M67">
         <v>5216.1247000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>3.3112582781456901E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45077</v>
       </c>
@@ -3190,8 +3404,11 @@
       <c r="M68">
         <v>5159.5054</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>1.2567476383265721E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45107</v>
       </c>
@@ -3231,8 +3448,11 @@
       <c r="M69">
         <v>5498.7893000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>-1.7409412744689771E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45138</v>
       </c>
@@ -3272,8 +3492,11 @@
       <c r="M70">
         <v>5692.4911000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>-2.8145133943709651E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45169</v>
       </c>
@@ -3313,8 +3536,11 @@
       <c r="M71">
         <v>5526.3608999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>3.5764131193300797E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45198</v>
       </c>
@@ -3354,8 +3580,11 @@
       <c r="M72">
         <v>5259.7101000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>1.2211554657234339E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45230</v>
       </c>
@@ -3395,8 +3624,11 @@
       <c r="M73">
         <v>5067.1900999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>4.9088942507696132E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45260</v>
       </c>
@@ -3436,8 +3668,11 @@
       <c r="M74">
         <v>5580.9459999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>-3.3309540804187239E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45289</v>
       </c>
@@ -3477,8 +3712,11 @@
       <c r="M75">
         <v>5906.3130000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>-7.1775284475212864E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45322</v>
       </c>
@@ -3518,8 +3756,11 @@
       <c r="M76">
         <v>5944.1068999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>5.6150878696956667E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45351</v>
       </c>
@@ -3559,8 +3800,11 @@
       <c r="M77">
         <v>6228.5150000000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77">
+        <v>-6.4123376623377304E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45380</v>
       </c>
@@ -3600,8 +3844,11 @@
       <c r="M78">
         <v>6416.22</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>-5.3100236908748544E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45412</v>
       </c>
@@ -3641,8 +3888,11 @@
       <c r="M79">
         <v>6116.5879999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <v>3.063403416557153E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45443</v>
       </c>
@@ -3682,8 +3932,11 @@
       <c r="M80">
         <v>6303.5590000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>-1.3546896167024871E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45471</v>
       </c>
@@ -3723,8 +3976,11 @@
       <c r="M81">
         <v>6454.0752000000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <v>4.3408873284392017E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45504</v>
       </c>
@@ -3764,8 +4020,11 @@
       <c r="M82">
         <v>6523.3220000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>-8.435301315386956E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45534</v>
       </c>
@@ -3805,8 +4064,11 @@
       <c r="M83">
         <v>6707.2340000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83">
+        <v>3.6832873966424318E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45565</v>
       </c>
@@ -3846,8 +4108,11 @@
       <c r="M84">
         <v>6843.183</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84">
+        <v>1.3130336716610239E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45596</v>
       </c>
@@ -3887,8 +4152,11 @@
       <c r="M85">
         <v>6809.0105999999996</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <v>4.3730619384589886E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45625</v>
       </c>
@@ -3928,8 +4196,11 @@
       <c r="M86">
         <v>7352.7020000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86">
+        <v>-4.9477517416086081E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45657</v>
       </c>
@@ -3969,8 +4240,11 @@
       <c r="M87">
         <v>6968.5950000000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <v>6.2546847672191319E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45688</v>
       </c>
@@ -4010,8 +4284,11 @@
       <c r="M88">
         <v>7285.6509999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <v>1.0973506819251799E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45716</v>
       </c>
@@ -4051,8 +4328,11 @@
       <c r="M89">
         <v>7130.9859999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89">
+        <v>4.1810209834011847E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45747</v>
       </c>
@@ -4092,8 +4372,11 @@
       <c r="M90">
         <v>6733.3083999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>1.112280174357427E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45777</v>
       </c>
@@ -4133,8 +4416,11 @@
       <c r="M91">
         <v>6750.6459999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <v>1.7466924334770258E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45807</v>
       </c>
@@ -4174,8 +4460,11 @@
       <c r="M92">
         <v>7181.692</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>7.8895463510848529E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45838</v>
       </c>
@@ -4214,6 +4503,9 @@
       </c>
       <c r="M93">
         <v>7546.8869999999997</v>
+      </c>
+      <c r="N93">
+        <v>-3.9863738493876033E-3</v>
       </c>
     </row>
   </sheetData>
